--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ceacam1-Havcr2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ceacam1-Havcr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>42.3544331500784</v>
+        <v>43.64525366666666</v>
       </c>
       <c r="H2">
-        <v>42.3544331500784</v>
+        <v>130.935761</v>
       </c>
       <c r="I2">
-        <v>0.6087616421153607</v>
+        <v>0.5421200012818527</v>
       </c>
       <c r="J2">
-        <v>0.6087616421153607</v>
+        <v>0.5463095076486307</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>16.4862004792146</v>
+        <v>0.147833</v>
       </c>
       <c r="N2">
-        <v>16.4862004792146</v>
+        <v>0.443499</v>
       </c>
       <c r="O2">
-        <v>0.4644337161303046</v>
+        <v>0.003725579965323046</v>
       </c>
       <c r="P2">
-        <v>0.4644337161303046</v>
+        <v>0.00373094073859636</v>
       </c>
       <c r="Q2">
-        <v>698.2636760956852</v>
+        <v>6.452208785304332</v>
       </c>
       <c r="R2">
-        <v>698.2636760956852</v>
+        <v>58.06987906773899</v>
       </c>
       <c r="S2">
-        <v>0.2827294316852235</v>
+        <v>0.002019711415576574</v>
       </c>
       <c r="T2">
-        <v>0.2827294316852235</v>
+        <v>0.002038248397968796</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>42.3544331500784</v>
+        <v>43.64525366666666</v>
       </c>
       <c r="H3">
-        <v>42.3544331500784</v>
+        <v>130.935761</v>
       </c>
       <c r="I3">
-        <v>0.6087616421153607</v>
+        <v>0.5421200012818527</v>
       </c>
       <c r="J3">
-        <v>0.6087616421153607</v>
+        <v>0.5463095076486307</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>19.0112233869483</v>
+        <v>19.057484</v>
       </c>
       <c r="N3">
-        <v>19.0112233869483</v>
+        <v>57.17245200000001</v>
       </c>
       <c r="O3">
-        <v>0.5355662838696954</v>
+        <v>0.4802728793967823</v>
       </c>
       <c r="P3">
-        <v>0.5355662838696954</v>
+        <v>0.4809639487174604</v>
       </c>
       <c r="Q3">
-        <v>805.2095900437088</v>
+        <v>831.7687234284414</v>
       </c>
       <c r="R3">
-        <v>805.2095900437088</v>
+        <v>7485.918510855972</v>
       </c>
       <c r="S3">
-        <v>0.3260322104301372</v>
+        <v>0.2603655339942227</v>
       </c>
       <c r="T3">
-        <v>0.3260322104301372</v>
+        <v>0.2627551780205771</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.0739717614284052</v>
+        <v>43.64525366666666</v>
       </c>
       <c r="H4">
-        <v>0.0739717614284052</v>
+        <v>130.935761</v>
       </c>
       <c r="I4">
-        <v>0.001063198527477832</v>
+        <v>0.5421200012818527</v>
       </c>
       <c r="J4">
-        <v>0.001063198527477832</v>
+        <v>0.5463095076486307</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.4862004792146</v>
+        <v>20.30417233333333</v>
       </c>
       <c r="N4">
-        <v>16.4862004792146</v>
+        <v>60.912517</v>
       </c>
       <c r="O4">
-        <v>0.4644337161303046</v>
+        <v>0.5116910138976626</v>
       </c>
       <c r="P4">
-        <v>0.4644337161303046</v>
+        <v>0.5124272910778679</v>
       </c>
       <c r="Q4">
-        <v>1.219513288709322</v>
+        <v>886.1807519800485</v>
       </c>
       <c r="R4">
-        <v>1.219513288709322</v>
+        <v>7975.626767820436</v>
       </c>
       <c r="S4">
-        <v>0.0004937852431007975</v>
+        <v>0.2773979331101133</v>
       </c>
       <c r="T4">
-        <v>0.0004937852431007975</v>
+        <v>0.2799439010944716</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.0739717614284052</v>
+        <v>43.64525366666666</v>
       </c>
       <c r="H5">
-        <v>0.0739717614284052</v>
+        <v>130.935761</v>
       </c>
       <c r="I5">
-        <v>0.001063198527477832</v>
+        <v>0.5421200012818527</v>
       </c>
       <c r="J5">
-        <v>0.001063198527477832</v>
+        <v>0.5463095076486307</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>19.0112233869483</v>
+        <v>0.171044</v>
       </c>
       <c r="N5">
-        <v>19.0112233869483</v>
+        <v>0.342088</v>
       </c>
       <c r="O5">
-        <v>0.5355662838696954</v>
+        <v>0.004310526740231986</v>
       </c>
       <c r="P5">
-        <v>0.5355662838696954</v>
+        <v>0.00287781946607535</v>
       </c>
       <c r="Q5">
-        <v>1.406293680841457</v>
+        <v>7.465258768161332</v>
       </c>
       <c r="R5">
-        <v>1.406293680841457</v>
+        <v>44.791552608968</v>
       </c>
       <c r="S5">
-        <v>0.000569413284377035</v>
+        <v>0.002336822761940025</v>
       </c>
       <c r="T5">
-        <v>0.000569413284377035</v>
+        <v>0.00157218013561327</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,184 +779,184 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.94460164336953</v>
+        <v>0.161567</v>
       </c>
       <c r="H6">
-        <v>7.94460164336953</v>
+        <v>0.484701</v>
       </c>
       <c r="I6">
-        <v>0.1141880172314637</v>
+        <v>0.00200683224150899</v>
       </c>
       <c r="J6">
-        <v>0.1141880172314637</v>
+        <v>0.00202234105216526</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>16.4862004792146</v>
+        <v>0.147833</v>
       </c>
       <c r="N6">
-        <v>16.4862004792146</v>
+        <v>0.443499</v>
       </c>
       <c r="O6">
-        <v>0.4644337161303046</v>
+        <v>0.003725579965323046</v>
       </c>
       <c r="P6">
-        <v>0.4644337161303046</v>
+        <v>0.00373094073859636</v>
       </c>
       <c r="Q6">
-        <v>130.9762954200878</v>
+        <v>0.023884934311</v>
       </c>
       <c r="R6">
-        <v>130.9762954200878</v>
+        <v>0.214964408799</v>
       </c>
       <c r="S6">
-        <v>0.05303276518035993</v>
+        <v>7.476613992730232E-06</v>
       </c>
       <c r="T6">
-        <v>0.05303276518035993</v>
+        <v>7.545234618859194E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.94460164336953</v>
+        <v>0.161567</v>
       </c>
       <c r="H7">
-        <v>7.94460164336953</v>
+        <v>0.484701</v>
       </c>
       <c r="I7">
-        <v>0.1141880172314637</v>
+        <v>0.00200683224150899</v>
       </c>
       <c r="J7">
-        <v>0.1141880172314637</v>
+        <v>0.00202234105216526</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.0112233869483</v>
+        <v>19.057484</v>
       </c>
       <c r="N7">
-        <v>19.0112233869483</v>
+        <v>57.17245200000001</v>
       </c>
       <c r="O7">
-        <v>0.5355662838696954</v>
+        <v>0.4802728793967823</v>
       </c>
       <c r="P7">
-        <v>0.5355662838696954</v>
+        <v>0.4809639487174604</v>
       </c>
       <c r="Q7">
-        <v>151.0365965624147</v>
+        <v>3.079060517428001</v>
       </c>
       <c r="R7">
-        <v>151.0365965624147</v>
+        <v>27.71154465685201</v>
       </c>
       <c r="S7">
-        <v>0.06115525205110374</v>
+        <v>0.0009638270990958213</v>
       </c>
       <c r="T7">
-        <v>0.06115525205110374</v>
+        <v>0.000972673138102827</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.3501579670466</v>
+        <v>0.161567</v>
       </c>
       <c r="H8">
-        <v>17.3501579670466</v>
+        <v>0.484701</v>
       </c>
       <c r="I8">
-        <v>0.2493743834926202</v>
+        <v>0.00200683224150899</v>
       </c>
       <c r="J8">
-        <v>0.2493743834926202</v>
+        <v>0.00202234105216526</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.4862004792146</v>
+        <v>20.30417233333333</v>
       </c>
       <c r="N8">
-        <v>16.4862004792146</v>
+        <v>60.912517</v>
       </c>
       <c r="O8">
-        <v>0.4644337161303046</v>
+        <v>0.5116910138976626</v>
       </c>
       <c r="P8">
-        <v>0.4644337161303046</v>
+        <v>0.5124272910778679</v>
       </c>
       <c r="Q8">
-        <v>286.0381825907726</v>
+        <v>3.280484211379667</v>
       </c>
       <c r="R8">
-        <v>286.0381825907726</v>
+        <v>29.524357902417</v>
       </c>
       <c r="S8">
-        <v>0.1158178716331813</v>
+        <v>0.001026878024380254</v>
       </c>
       <c r="T8">
-        <v>0.1158178716331813</v>
+        <v>0.001036302746996609</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.3501579670466</v>
+        <v>0.161567</v>
       </c>
       <c r="H9">
-        <v>17.3501579670466</v>
+        <v>0.484701</v>
       </c>
       <c r="I9">
-        <v>0.2493743834926202</v>
+        <v>0.00200683224150899</v>
       </c>
       <c r="J9">
-        <v>0.2493743834926202</v>
+        <v>0.00202234105216526</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>19.0112233869483</v>
+        <v>0.171044</v>
       </c>
       <c r="N9">
-        <v>19.0112233869483</v>
+        <v>0.342088</v>
       </c>
       <c r="O9">
-        <v>0.5355662838696954</v>
+        <v>0.004310526740231986</v>
       </c>
       <c r="P9">
-        <v>0.5355662838696954</v>
+        <v>0.00287781946607535</v>
       </c>
       <c r="Q9">
-        <v>329.8477289103636</v>
+        <v>0.027635065948</v>
       </c>
       <c r="R9">
-        <v>329.8477289103636</v>
+        <v>0.165810395688</v>
       </c>
       <c r="S9">
-        <v>0.1335565118594389</v>
+        <v>8.650504040184194E-06</v>
       </c>
       <c r="T9">
-        <v>0.1335565118594389</v>
+        <v>5.819932446964489E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,117 +1027,737 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.85157577035751</v>
+        <v>10.44622</v>
       </c>
       <c r="H10">
-        <v>1.85157577035751</v>
+        <v>31.33866</v>
       </c>
       <c r="I10">
-        <v>0.02661275863307748</v>
+        <v>0.1297530504242576</v>
       </c>
       <c r="J10">
-        <v>0.02661275863307748</v>
+        <v>0.1307557827152189</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>16.4862004792146</v>
+        <v>0.147833</v>
       </c>
       <c r="N10">
-        <v>16.4862004792146</v>
+        <v>0.443499</v>
       </c>
       <c r="O10">
-        <v>0.4644337161303046</v>
+        <v>0.003725579965323046</v>
       </c>
       <c r="P10">
-        <v>0.4644337161303046</v>
+        <v>0.00373094073859636</v>
       </c>
       <c r="Q10">
-        <v>30.52544935257012</v>
+        <v>1.54429604126</v>
       </c>
       <c r="R10">
-        <v>30.52544935257012</v>
+        <v>13.89866437134</v>
       </c>
       <c r="S10">
-        <v>0.01235986238843902</v>
+        <v>0.0004834053651001651</v>
       </c>
       <c r="T10">
-        <v>0.01235986238843902</v>
+        <v>0.000487842076539264</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>10.44622</v>
+      </c>
+      <c r="H11">
+        <v>31.33866</v>
+      </c>
+      <c r="I11">
+        <v>0.1297530504242576</v>
+      </c>
+      <c r="J11">
+        <v>0.1307557827152189</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>19.057484</v>
+      </c>
+      <c r="N11">
+        <v>57.17245200000001</v>
+      </c>
+      <c r="O11">
+        <v>0.4802728793967823</v>
+      </c>
+      <c r="P11">
+        <v>0.4809639487174604</v>
+      </c>
+      <c r="Q11">
+        <v>199.07867051048</v>
+      </c>
+      <c r="R11">
+        <v>1791.70803459432</v>
+      </c>
+      <c r="S11">
+        <v>0.06231687113777409</v>
+      </c>
+      <c r="T11">
+        <v>0.06288881757235396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>10.44622</v>
+      </c>
+      <c r="H12">
+        <v>31.33866</v>
+      </c>
+      <c r="I12">
+        <v>0.1297530504242576</v>
+      </c>
+      <c r="J12">
+        <v>0.1307557827152189</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>20.30417233333333</v>
+      </c>
+      <c r="N12">
+        <v>60.912517</v>
+      </c>
+      <c r="O12">
+        <v>0.5116910138976626</v>
+      </c>
+      <c r="P12">
+        <v>0.5124272910778679</v>
+      </c>
+      <c r="Q12">
+        <v>212.1018511119133</v>
+      </c>
+      <c r="R12">
+        <v>1908.91666000722</v>
+      </c>
+      <c r="S12">
+        <v>0.06639346992790292</v>
+      </c>
+      <c r="T12">
+        <v>0.06700283152952594</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>10.44622</v>
+      </c>
+      <c r="H13">
+        <v>31.33866</v>
+      </c>
+      <c r="I13">
+        <v>0.1297530504242576</v>
+      </c>
+      <c r="J13">
+        <v>0.1307557827152189</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.171044</v>
+      </c>
+      <c r="N13">
+        <v>0.342088</v>
+      </c>
+      <c r="O13">
+        <v>0.004310526740231986</v>
+      </c>
+      <c r="P13">
+        <v>0.00287781946607535</v>
+      </c>
+      <c r="Q13">
+        <v>1.78676325368</v>
+      </c>
+      <c r="R13">
+        <v>10.72057952208</v>
+      </c>
+      <c r="S13">
+        <v>0.0005593039934804317</v>
+      </c>
+      <c r="T13">
+        <v>0.0003762915367997758</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.85157577035751</v>
-      </c>
-      <c r="H11">
-        <v>1.85157577035751</v>
-      </c>
-      <c r="I11">
-        <v>0.02661275863307748</v>
-      </c>
-      <c r="J11">
-        <v>0.02661275863307748</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>19.0112233869483</v>
-      </c>
-      <c r="N11">
-        <v>19.0112233869483</v>
-      </c>
-      <c r="O11">
-        <v>0.5355662838696954</v>
-      </c>
-      <c r="P11">
-        <v>0.5355662838696954</v>
-      </c>
-      <c r="Q11">
-        <v>35.2007205881275</v>
-      </c>
-      <c r="R11">
-        <v>35.2007205881275</v>
-      </c>
-      <c r="S11">
-        <v>0.01425289624463846</v>
-      </c>
-      <c r="T11">
-        <v>0.01425289624463846</v>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>24.40323666666667</v>
+      </c>
+      <c r="H14">
+        <v>73.20971</v>
+      </c>
+      <c r="I14">
+        <v>0.303113891697197</v>
+      </c>
+      <c r="J14">
+        <v>0.3054563575278647</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.147833</v>
+      </c>
+      <c r="N14">
+        <v>0.443499</v>
+      </c>
+      <c r="O14">
+        <v>0.003725579965323046</v>
+      </c>
+      <c r="P14">
+        <v>0.00373094073859636</v>
+      </c>
+      <c r="Q14">
+        <v>3.607603686143333</v>
+      </c>
+      <c r="R14">
+        <v>32.46843317529</v>
+      </c>
+      <c r="S14">
+        <v>0.001129275042118177</v>
+      </c>
+      <c r="T14">
+        <v>0.001139639568163965</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>24.40323666666667</v>
+      </c>
+      <c r="H15">
+        <v>73.20971</v>
+      </c>
+      <c r="I15">
+        <v>0.303113891697197</v>
+      </c>
+      <c r="J15">
+        <v>0.3054563575278647</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>19.057484</v>
+      </c>
+      <c r="N15">
+        <v>57.17245200000001</v>
+      </c>
+      <c r="O15">
+        <v>0.4802728793967823</v>
+      </c>
+      <c r="P15">
+        <v>0.4809639487174604</v>
+      </c>
+      <c r="Q15">
+        <v>465.0642923232134</v>
+      </c>
+      <c r="R15">
+        <v>4185.578630908921</v>
+      </c>
+      <c r="S15">
+        <v>0.1455773815505772</v>
+      </c>
+      <c r="T15">
+        <v>0.1469134958774542</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>24.40323666666667</v>
+      </c>
+      <c r="H16">
+        <v>73.20971</v>
+      </c>
+      <c r="I16">
+        <v>0.303113891697197</v>
+      </c>
+      <c r="J16">
+        <v>0.3054563575278647</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>20.30417233333333</v>
+      </c>
+      <c r="N16">
+        <v>60.912517</v>
+      </c>
+      <c r="O16">
+        <v>0.5116910138976626</v>
+      </c>
+      <c r="P16">
+        <v>0.5124272910778679</v>
+      </c>
+      <c r="Q16">
+        <v>495.4875227711189</v>
+      </c>
+      <c r="R16">
+        <v>4459.38770494007</v>
+      </c>
+      <c r="S16">
+        <v>0.155100654569005</v>
+      </c>
+      <c r="T16">
+        <v>0.1565241738305164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>24.40323666666667</v>
+      </c>
+      <c r="H17">
+        <v>73.20971</v>
+      </c>
+      <c r="I17">
+        <v>0.303113891697197</v>
+      </c>
+      <c r="J17">
+        <v>0.3054563575278647</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.171044</v>
+      </c>
+      <c r="N17">
+        <v>0.342088</v>
+      </c>
+      <c r="O17">
+        <v>0.004310526740231986</v>
+      </c>
+      <c r="P17">
+        <v>0.00287781946607535</v>
+      </c>
+      <c r="Q17">
+        <v>4.174027212413334</v>
+      </c>
+      <c r="R17">
+        <v>25.04416327448</v>
+      </c>
+      <c r="S17">
+        <v>0.00130658053549655</v>
+      </c>
+      <c r="T17">
+        <v>0.0008790482517301608</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.852196</v>
+      </c>
+      <c r="H18">
+        <v>3.704392</v>
+      </c>
+      <c r="I18">
+        <v>0.02300622435518382</v>
+      </c>
+      <c r="J18">
+        <v>0.01545601105612031</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.147833</v>
+      </c>
+      <c r="N18">
+        <v>0.443499</v>
+      </c>
+      <c r="O18">
+        <v>0.003725579965323046</v>
+      </c>
+      <c r="P18">
+        <v>0.00373094073859636</v>
+      </c>
+      <c r="Q18">
+        <v>0.273815691268</v>
+      </c>
+      <c r="R18">
+        <v>1.642894147608</v>
+      </c>
+      <c r="S18">
+        <v>8.571152853539994E-05</v>
+      </c>
+      <c r="T18">
+        <v>5.766546130547502E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.852196</v>
+      </c>
+      <c r="H19">
+        <v>3.704392</v>
+      </c>
+      <c r="I19">
+        <v>0.02300622435518382</v>
+      </c>
+      <c r="J19">
+        <v>0.01545601105612031</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>19.057484</v>
+      </c>
+      <c r="N19">
+        <v>57.17245200000001</v>
+      </c>
+      <c r="O19">
+        <v>0.4802728793967823</v>
+      </c>
+      <c r="P19">
+        <v>0.4809639487174604</v>
+      </c>
+      <c r="Q19">
+        <v>35.29819563486401</v>
+      </c>
+      <c r="R19">
+        <v>211.789173809184</v>
+      </c>
+      <c r="S19">
+        <v>0.01104926561511251</v>
+      </c>
+      <c r="T19">
+        <v>0.007433784108972351</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.852196</v>
+      </c>
+      <c r="H20">
+        <v>3.704392</v>
+      </c>
+      <c r="I20">
+        <v>0.02300622435518382</v>
+      </c>
+      <c r="J20">
+        <v>0.01545601105612031</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>20.30417233333333</v>
+      </c>
+      <c r="N20">
+        <v>60.912517</v>
+      </c>
+      <c r="O20">
+        <v>0.5116910138976626</v>
+      </c>
+      <c r="P20">
+        <v>0.5124272910778679</v>
+      </c>
+      <c r="Q20">
+        <v>37.60730677911067</v>
+      </c>
+      <c r="R20">
+        <v>225.643840674664</v>
+      </c>
+      <c r="S20">
+        <v>0.01177207826626111</v>
+      </c>
+      <c r="T20">
+        <v>0.007920081876357307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.852196</v>
+      </c>
+      <c r="H21">
+        <v>3.704392</v>
+      </c>
+      <c r="I21">
+        <v>0.02300622435518382</v>
+      </c>
+      <c r="J21">
+        <v>0.01545601105612031</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.171044</v>
+      </c>
+      <c r="N21">
+        <v>0.342088</v>
+      </c>
+      <c r="O21">
+        <v>0.004310526740231986</v>
+      </c>
+      <c r="P21">
+        <v>0.00287781946607535</v>
+      </c>
+      <c r="Q21">
+        <v>0.316807012624</v>
+      </c>
+      <c r="R21">
+        <v>1.267228050496</v>
+      </c>
+      <c r="S21">
+        <v>9.916894527479623E-05</v>
+      </c>
+      <c r="T21">
+        <v>4.447960948517886E-05</v>
       </c>
     </row>
   </sheetData>
